--- a/generated_docs/WR_89877202_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89877202_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I155"/>
+  <dimension ref="A2:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>30038.7</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>12.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1271,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1305,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-LG-SL</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Lug,St Lt</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,11 +1475,11 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1509,11 +1509,11 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1626,17 +1626,17 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>SLB-W-8-S-1-S</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>SLB,Wood,8ft,Steel,1Pos,Street</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1660,17 +1660,17 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>SLT-250-SRM</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>250W Multi-Volt Sodium Roadway Refractor</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>SLB-W-8-S-1-S</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>SLB,Wood,8ft,Steel,1Pos,Street</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,28 +1717,28 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>SLT-250-SRM</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>250W Multi-Volt Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1751,28 +1751,28 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>CND-S556</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup 556MCM</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1781,32 +1781,32 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,11 +1815,11 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>190.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1849,11 +1849,11 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>CND-S556</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>CND,Stirrup 556MCM</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1955,28 +1955,28 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1989,28 +1989,28 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,32 +2019,32 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2057,28 +2057,28 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2087,11 +2087,11 @@
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2189,22 +2189,22 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2223,22 +2223,22 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2261,18 +2261,18 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2291,22 +2291,22 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>565.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,22 +2325,22 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>TIE-40-SP3-N</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>TIE,4/0 AWG,Spool 3in,Neutral/Sec</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2363,18 +2363,18 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2393,11 +2393,11 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2431,28 +2431,28 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2465,13 +2465,13 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
@@ -2495,17 +2495,17 @@
         </is>
       </c>
       <c r="F67" s="13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
@@ -2533,28 +2533,28 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>POL-45-3</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 3</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,28 +2567,28 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2635,18 +2635,18 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2665,32 +2665,32 @@
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2703,13 +2703,13 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
@@ -2737,28 +2737,28 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2767,32 +2767,32 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>POL-45-3</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>Pole,45ft,Class 3</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2801,32 +2801,32 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2835,32 +2835,32 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2869,11 +2869,11 @@
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2907,28 +2907,28 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2941,28 +2941,28 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2975,13 +2975,13 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
@@ -3009,13 +3009,13 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="C83" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D83" s="12" t="inlineStr">
@@ -3043,28 +3043,28 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -3077,28 +3077,28 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3141,22 +3141,22 @@
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3179,18 +3179,18 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3209,32 +3209,32 @@
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>565.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3243,32 +3243,32 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3277,32 +3277,32 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>POL-50-1</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>Pole,50ft,Class 1</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3311,32 +3311,32 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>631.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3345,32 +3345,32 @@
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3379,22 +3379,22 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>POL-45-4</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>Pole,45ft,Class 4</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3413,22 +3413,22 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>73.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3447,22 +3447,22 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>155.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3481,32 +3481,32 @@
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>PIN-35-ANGW</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>Pin,35kV,Angle-Wood Only</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3515,32 +3515,32 @@
         </is>
       </c>
       <c r="F97" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>124.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3553,18 +3553,18 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3583,22 +3583,22 @@
         </is>
       </c>
       <c r="F99" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3617,22 +3617,22 @@
         </is>
       </c>
       <c r="F100" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3651,22 +3651,22 @@
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>POL-50-1</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pole,50ft,Class 1</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3689,18 +3689,18 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3723,18 +3723,18 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3757,18 +3757,18 @@
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3787,32 +3787,32 @@
         </is>
       </c>
       <c r="F105" s="13" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3825,28 +3825,28 @@
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>ARM-BR-60S</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3855,32 +3855,32 @@
         </is>
       </c>
       <c r="F107" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>701.0599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3889,32 +3889,32 @@
         </is>
       </c>
       <c r="F108" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3923,32 +3923,32 @@
         </is>
       </c>
       <c r="F109" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>565.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>PAA-40AL</t>
+          <t>PIN-35-ANGW</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>PAA,#1/0 - #4/0 AA,AL,AS</t>
+          <t>Pin,35kV,Angle-Wood Only</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3957,32 +3957,32 @@
         </is>
       </c>
       <c r="F110" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-ANG</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Angle</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3991,32 +3991,32 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>565.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>POL-50-1</t>
+          <t>POL-45-3</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D112" s="9" t="inlineStr">
         <is>
-          <t>Pole,50ft,Class 1</t>
+          <t>Pole,45ft,Class 3</t>
         </is>
       </c>
       <c r="E112" s="9" t="inlineStr">
@@ -4025,32 +4025,32 @@
         </is>
       </c>
       <c r="F112" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>631.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -4059,32 +4059,32 @@
         </is>
       </c>
       <c r="F113" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>SLB-W-8-S-1-S</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>SLB,Wood,8ft,Steel,1Pos,Street</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -4093,32 +4093,32 @@
         </is>
       </c>
       <c r="F114" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
         <is>
-          <t>SLT-250-SRM</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>250W Multi-Volt Sodium Roadway Refractor</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E115" s="12" t="inlineStr">
@@ -4131,28 +4131,28 @@
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D116" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E116" s="9" t="inlineStr">
@@ -4161,32 +4161,32 @@
         </is>
       </c>
       <c r="F116" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>186.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
         <is>
-          <t>PIN-35-ANGW</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C117" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D117" s="12" t="inlineStr">
         <is>
-          <t>Pin,35kV,Angle-Wood Only</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E117" s="12" t="inlineStr">
@@ -4195,32 +4195,32 @@
         </is>
       </c>
       <c r="F117" s="13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>186.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -4233,18 +4233,18 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -4263,17 +4263,17 @@
         </is>
       </c>
       <c r="F119" s="13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>565.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
@@ -4301,87 +4301,198 @@
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H121" s="16" t="n">
-        <v>24384.69000000001</v>
+      <c r="A121" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B121" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C121" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D121" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E121" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" s="13" t="inlineStr"/>
+      <c r="H121" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="inlineStr">
+        <is>
+          <t>SAA-CL-336</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D122" s="9" t="inlineStr">
+        <is>
+          <t>SAA,Susp Clamp Light Angle,336</t>
+        </is>
+      </c>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="10" t="inlineStr"/>
+      <c r="H122" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B123" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C123" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D123" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="G123" s="13" t="inlineStr"/>
+      <c r="H123" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (08/14/2025)</t>
-        </is>
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B125" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C125" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D125" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E125" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F125" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G125" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H125" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A125" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B125" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="13" t="inlineStr"/>
+      <c r="H125" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B126" s="9" t="inlineStr">
         <is>
-          <t>CNA-SWITCH</t>
+          <t>GND-LG-SL</t>
         </is>
       </c>
       <c r="C126" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D126" s="9" t="inlineStr">
         <is>
-          <t>CNA,Overhead Switching</t>
+          <t>GND,Lug,St Lt</t>
         </is>
       </c>
       <c r="E126" s="9" t="inlineStr">
@@ -4390,11 +4501,11 @@
         </is>
       </c>
       <c r="F126" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="10" t="inlineStr"/>
       <c r="H126" s="11" t="n">
-        <v>210.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4405,7 +4516,7 @@
       </c>
       <c r="B127" s="12" t="inlineStr">
         <is>
-          <t>CNA-SWITCH</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C127" s="12" t="inlineStr">
@@ -4415,7 +4526,7 @@
       </c>
       <c r="D127" s="12" t="inlineStr">
         <is>
-          <t>CNA,Overhead Switching</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E127" s="12" t="inlineStr">
@@ -4424,22 +4535,22 @@
         </is>
       </c>
       <c r="F127" s="13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G127" s="13" t="inlineStr"/>
       <c r="H127" s="14" t="n">
-        <v>210.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B128" s="9" t="inlineStr">
         <is>
-          <t>CNA-SWITCH</t>
+          <t>PAA-40AL</t>
         </is>
       </c>
       <c r="C128" s="9" t="inlineStr">
@@ -4449,7 +4560,7 @@
       </c>
       <c r="D128" s="9" t="inlineStr">
         <is>
-          <t>CNA,Overhead Switching</t>
+          <t>PAA,#1/0 - #4/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E128" s="9" t="inlineStr">
@@ -4458,22 +4569,22 @@
         </is>
       </c>
       <c r="F128" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" s="10" t="inlineStr"/>
       <c r="H128" s="11" t="n">
-        <v>210.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B129" s="12" t="inlineStr">
         <is>
-          <t>CNA-SWITCH</t>
+          <t>PIN-15-ANG</t>
         </is>
       </c>
       <c r="C129" s="12" t="inlineStr">
@@ -4483,7 +4594,7 @@
       </c>
       <c r="D129" s="12" t="inlineStr">
         <is>
-          <t>CNA,Overhead Switching</t>
+          <t>Pin,15kV,Angle</t>
         </is>
       </c>
       <c r="E129" s="12" t="inlineStr">
@@ -4492,22 +4603,22 @@
         </is>
       </c>
       <c r="F129" s="13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G129" s="13" t="inlineStr"/>
       <c r="H129" s="14" t="n">
-        <v>210.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B130" s="9" t="inlineStr">
         <is>
-          <t>CNA-SWITCH</t>
+          <t>POL-50-1</t>
         </is>
       </c>
       <c r="C130" s="9" t="inlineStr">
@@ -4517,7 +4628,7 @@
       </c>
       <c r="D130" s="9" t="inlineStr">
         <is>
-          <t>CNA,Overhead Switching</t>
+          <t>Pole,50ft,Class 1</t>
         </is>
       </c>
       <c r="E130" s="9" t="inlineStr">
@@ -4526,22 +4637,22 @@
         </is>
       </c>
       <c r="F130" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" s="10" t="inlineStr"/>
       <c r="H130" s="11" t="n">
-        <v>210.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B131" s="12" t="inlineStr">
         <is>
-          <t>CNA-SWITCH</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C131" s="12" t="inlineStr">
@@ -4551,7 +4662,7 @@
       </c>
       <c r="D131" s="12" t="inlineStr">
         <is>
-          <t>CNA,Overhead Switching</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E131" s="12" t="inlineStr">
@@ -4564,28 +4675,28 @@
       </c>
       <c r="G131" s="13" t="inlineStr"/>
       <c r="H131" s="14" t="n">
-        <v>210.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B132" s="9" t="inlineStr">
         <is>
-          <t>CNA-SWITCH</t>
+          <t>SLB-W-8-S-1-S</t>
         </is>
       </c>
       <c r="C132" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D132" s="9" t="inlineStr">
         <is>
-          <t>CNA,Overhead Switching</t>
+          <t>SLB,Wood,8ft,Steel,1Pos,Street</t>
         </is>
       </c>
       <c r="E132" s="9" t="inlineStr">
@@ -4594,91 +4705,202 @@
         </is>
       </c>
       <c r="F132" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" s="10" t="inlineStr"/>
       <c r="H132" s="11" t="n">
-        <v>210.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H133" s="16" t="n">
-        <v>1475.32</v>
+      <c r="A133" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B133" s="12" t="inlineStr">
+        <is>
+          <t>SLT-250-SRM</t>
+        </is>
+      </c>
+      <c r="C133" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D133" s="12" t="inlineStr">
+        <is>
+          <t>250W Multi-Volt Sodium Roadway Refractor</t>
+        </is>
+      </c>
+      <c r="E133" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="13" t="inlineStr"/>
+      <c r="H133" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B134" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C134" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D134" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E134" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G134" s="10" t="inlineStr"/>
+      <c r="H134" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B135" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C135" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D135" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E135" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G135" s="13" t="inlineStr"/>
+      <c r="H135" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="7" t="inlineStr">
-        <is>
-          <t>Friday (08/15/2025)</t>
-        </is>
+      <c r="A136" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B136" s="9" t="inlineStr">
+        <is>
+          <t>PIN-35-ANGW</t>
+        </is>
+      </c>
+      <c r="C136" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D136" s="9" t="inlineStr">
+        <is>
+          <t>Pin,35kV,Angle-Wood Only</t>
+        </is>
+      </c>
+      <c r="E136" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G136" s="10" t="inlineStr"/>
+      <c r="H136" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B137" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C137" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D137" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E137" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F137" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G137" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H137" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A137" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B137" s="12" t="inlineStr">
+        <is>
+          <t>PLD-ASB</t>
+        </is>
+      </c>
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D137" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Anti Split Bolt</t>
+        </is>
+      </c>
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="13" t="inlineStr"/>
+      <c r="H137" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B138" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C138" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D138" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E138" s="9" t="inlineStr">
@@ -4691,28 +4913,28 @@
       </c>
       <c r="G138" s="10" t="inlineStr"/>
       <c r="H138" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B139" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-45-1</t>
         </is>
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,45ft,Class 1</t>
         </is>
       </c>
       <c r="E139" s="12" t="inlineStr">
@@ -4721,32 +4943,32 @@
         </is>
       </c>
       <c r="F139" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" s="13" t="inlineStr"/>
       <c r="H139" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="9" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B140" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C140" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D140" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E140" s="9" t="inlineStr">
@@ -4759,28 +4981,28 @@
       </c>
       <c r="G140" s="10" t="inlineStr"/>
       <c r="H140" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B141" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C141" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D141" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E141" s="12" t="inlineStr">
@@ -4789,22 +5011,22 @@
         </is>
       </c>
       <c r="F141" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G141" s="13" t="inlineStr"/>
       <c r="H141" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B142" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C142" s="9" t="inlineStr">
@@ -4814,7 +5036,7 @@
       </c>
       <c r="D142" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E142" s="9" t="inlineStr">
@@ -4823,22 +5045,22 @@
         </is>
       </c>
       <c r="F142" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G142" s="10" t="inlineStr"/>
       <c r="H142" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B143" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C143" s="12" t="inlineStr">
@@ -4848,7 +5070,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E143" s="12" t="inlineStr">
@@ -4861,410 +5083,1242 @@
       </c>
       <c r="G143" s="13" t="inlineStr"/>
       <c r="H143" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="9" t="inlineStr">
+      <c r="A144" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H144" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (08/14/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B148" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C148" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D148" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E148" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F148" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G148" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H148" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B149" s="9" t="inlineStr">
+        <is>
+          <t>CNA-SWITCH</t>
+        </is>
+      </c>
+      <c r="C149" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D149" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Overhead Switching</t>
+        </is>
+      </c>
+      <c r="E149" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" s="10" t="inlineStr"/>
+      <c r="H149" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B150" s="12" t="inlineStr">
+        <is>
+          <t>CNA-SWITCH</t>
+        </is>
+      </c>
+      <c r="C150" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D150" s="12" t="inlineStr">
+        <is>
+          <t>CNA,Overhead Switching</t>
+        </is>
+      </c>
+      <c r="E150" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" s="13" t="inlineStr"/>
+      <c r="H150" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B151" s="9" t="inlineStr">
+        <is>
+          <t>CNA-SWITCH</t>
+        </is>
+      </c>
+      <c r="C151" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D151" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Overhead Switching</t>
+        </is>
+      </c>
+      <c r="E151" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" s="10" t="inlineStr"/>
+      <c r="H151" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B152" s="12" t="inlineStr">
+        <is>
+          <t>CNA-SWITCH</t>
+        </is>
+      </c>
+      <c r="C152" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D152" s="12" t="inlineStr">
+        <is>
+          <t>CNA,Overhead Switching</t>
+        </is>
+      </c>
+      <c r="E152" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G152" s="13" t="inlineStr"/>
+      <c r="H152" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B153" s="9" t="inlineStr">
+        <is>
+          <t>CNA-SWITCH</t>
+        </is>
+      </c>
+      <c r="C153" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D153" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Overhead Switching</t>
+        </is>
+      </c>
+      <c r="E153" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G153" s="10" t="inlineStr"/>
+      <c r="H153" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B154" s="12" t="inlineStr">
+        <is>
+          <t>CNA-SWITCH</t>
+        </is>
+      </c>
+      <c r="C154" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D154" s="12" t="inlineStr">
+        <is>
+          <t>CNA,Overhead Switching</t>
+        </is>
+      </c>
+      <c r="E154" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F154" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G154" s="13" t="inlineStr"/>
+      <c r="H154" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B155" s="9" t="inlineStr">
+        <is>
+          <t>CNA-SWITCH</t>
+        </is>
+      </c>
+      <c r="C155" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D155" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Overhead Switching</t>
+        </is>
+      </c>
+      <c r="E155" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F155" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" s="10" t="inlineStr"/>
+      <c r="H155" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="12" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B156" s="12" t="inlineStr">
+        <is>
+          <t>ARD-477</t>
+        </is>
+      </c>
+      <c r="C156" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D156" s="12" t="inlineStr">
+        <is>
+          <t>ARD,477 ACSR (Armor Rod)</t>
+        </is>
+      </c>
+      <c r="E156" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F156" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="13" t="inlineStr"/>
+      <c r="H156" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H157" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/15/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B161" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C161" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D161" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E161" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F161" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G161" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H161" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="inlineStr">
         <is>
           <t>Point 12</t>
         </is>
       </c>
-      <c r="B144" s="9" t="inlineStr">
+      <c r="B162" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C162" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D162" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E162" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F162" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" s="10" t="inlineStr"/>
+      <c r="H162" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B163" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C163" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D163" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E163" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F163" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="13" t="inlineStr"/>
+      <c r="H163" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B164" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C164" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D164" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E164" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F164" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="10" t="inlineStr"/>
+      <c r="H164" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B165" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C165" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D165" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E165" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F165" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="13" t="inlineStr"/>
+      <c r="H165" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B166" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C166" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D166" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E166" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F166" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" s="10" t="inlineStr"/>
+      <c r="H166" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B167" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C167" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D167" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E167" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F167" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" s="13" t="inlineStr"/>
+      <c r="H167" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B168" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C144" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D144" s="9" t="inlineStr">
+      <c r="C168" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D168" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E144" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="10" t="n">
+      <c r="E168" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F168" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G144" s="10" t="inlineStr"/>
-      <c r="H144" s="11" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="12" t="inlineStr">
+      <c r="G168" s="10" t="inlineStr"/>
+      <c r="H168" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="12" t="inlineStr">
         <is>
           <t>Point 12</t>
         </is>
       </c>
-      <c r="B145" s="12" t="inlineStr">
+      <c r="B169" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-K</t>
         </is>
       </c>
-      <c r="C145" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D145" s="12" t="inlineStr">
+      <c r="C169" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D169" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
-      <c r="E145" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F145" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" s="13" t="inlineStr"/>
-      <c r="H145" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="9" t="inlineStr">
+      <c r="E169" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F169" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" s="13" t="inlineStr"/>
+      <c r="H169" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="inlineStr">
         <is>
           <t>Point 12</t>
         </is>
       </c>
-      <c r="B146" s="9" t="inlineStr">
+      <c r="B170" s="9" t="inlineStr">
         <is>
           <t>PIN-XAA</t>
         </is>
       </c>
-      <c r="C146" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D146" s="9" t="inlineStr">
+      <c r="C170" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D170" s="9" t="inlineStr">
         <is>
           <t>Pin,Crossarm,8in</t>
         </is>
       </c>
-      <c r="E146" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="10" t="n">
+      <c r="E170" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F170" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G146" s="10" t="inlineStr"/>
-      <c r="H146" s="11" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="12" t="inlineStr">
+      <c r="G170" s="10" t="inlineStr"/>
+      <c r="H170" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="12" t="inlineStr">
         <is>
           <t>Point 12</t>
         </is>
       </c>
-      <c r="B147" s="12" t="inlineStr">
+      <c r="B171" s="12" t="inlineStr">
         <is>
           <t>POL-45-2</t>
         </is>
       </c>
-      <c r="C147" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D147" s="12" t="inlineStr">
+      <c r="C171" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D171" s="12" t="inlineStr">
         <is>
           <t>Pole,45ft,Class 2</t>
         </is>
       </c>
-      <c r="E147" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F147" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" s="13" t="inlineStr"/>
-      <c r="H147" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="9" t="inlineStr">
+      <c r="E171" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F171" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" s="13" t="inlineStr"/>
+      <c r="H171" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="inlineStr">
         <is>
           <t>Point 12</t>
         </is>
       </c>
-      <c r="B148" s="9" t="inlineStr">
+      <c r="B172" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C148" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D148" s="9" t="inlineStr">
+      <c r="C172" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D172" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E148" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F148" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" s="10" t="inlineStr"/>
-      <c r="H148" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="12" t="inlineStr">
+      <c r="E172" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F172" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" s="10" t="inlineStr"/>
+      <c r="H172" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="12" t="inlineStr">
         <is>
           <t>Point 12</t>
         </is>
       </c>
-      <c r="B149" s="12" t="inlineStr">
+      <c r="B173" s="12" t="inlineStr">
         <is>
           <t>SAA-CL-336</t>
         </is>
       </c>
-      <c r="C149" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D149" s="12" t="inlineStr">
+      <c r="C173" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D173" s="12" t="inlineStr">
         <is>
           <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
-      <c r="E149" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" s="13" t="inlineStr"/>
-      <c r="H149" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="9" t="inlineStr">
+      <c r="E173" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F173" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" s="13" t="inlineStr"/>
+      <c r="H173" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B174" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C174" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D174" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E174" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F174" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G174" s="10" t="inlineStr"/>
+      <c r="H174" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B175" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C175" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D175" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E175" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F175" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="G175" s="13" t="inlineStr"/>
+      <c r="H175" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="inlineStr">
         <is>
           <t>Point 34</t>
         </is>
       </c>
-      <c r="B150" s="9" t="inlineStr">
+      <c r="B176" s="9" t="inlineStr">
+        <is>
+          <t>ARD-477</t>
+        </is>
+      </c>
+      <c r="C176" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D176" s="9" t="inlineStr">
+        <is>
+          <t>ARD,477 ACSR (Armor Rod)</t>
+        </is>
+      </c>
+      <c r="E176" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F176" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" s="10" t="inlineStr"/>
+      <c r="H176" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B177" s="12" t="inlineStr">
         <is>
           <t>ARM-8D-60S</t>
         </is>
       </c>
-      <c r="C150" s="9" t="inlineStr">
+      <c r="C177" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D150" s="9" t="inlineStr">
+      <c r="D177" s="12" t="inlineStr">
         <is>
           <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
-      <c r="E150" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" s="10" t="inlineStr"/>
-      <c r="H150" s="11" t="n">
-        <v>73.73</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="12" t="inlineStr">
+      <c r="E177" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F177" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" s="13" t="inlineStr"/>
+      <c r="H177" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="inlineStr">
         <is>
           <t>Point 34</t>
         </is>
       </c>
-      <c r="B151" s="12" t="inlineStr">
+      <c r="B178" s="9" t="inlineStr">
+        <is>
+          <t>ARM-BR-60S</t>
+        </is>
+      </c>
+      <c r="C178" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D178" s="9" t="inlineStr">
+        <is>
+          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E178" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" s="10" t="inlineStr"/>
+      <c r="H178" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C151" s="12" t="inlineStr">
+      <c r="C179" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D151" s="12" t="inlineStr">
+      <c r="D179" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E151" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="13" t="n">
+      <c r="E179" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F179" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="G151" s="13" t="inlineStr"/>
-      <c r="H151" s="14" t="n">
-        <v>155.4</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="9" t="inlineStr">
+      <c r="G179" s="13" t="inlineStr"/>
+      <c r="H179" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="inlineStr">
         <is>
           <t>Point 34</t>
         </is>
       </c>
-      <c r="B152" s="9" t="inlineStr">
+      <c r="B180" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-K</t>
         </is>
       </c>
-      <c r="C152" s="9" t="inlineStr">
+      <c r="C180" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D152" s="9" t="inlineStr">
+      <c r="D180" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
-      <c r="E152" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" s="10" t="inlineStr"/>
-      <c r="H152" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="12" t="inlineStr">
+      <c r="E180" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F180" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="10" t="inlineStr"/>
+      <c r="H180" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="12" t="inlineStr">
         <is>
           <t>Point 34</t>
         </is>
       </c>
-      <c r="B153" s="12" t="inlineStr">
+      <c r="B181" s="12" t="inlineStr">
         <is>
           <t>PIN-35-ANGW</t>
         </is>
       </c>
-      <c r="C153" s="12" t="inlineStr">
+      <c r="C181" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D153" s="12" t="inlineStr">
+      <c r="D181" s="12" t="inlineStr">
         <is>
           <t>Pin,35kV,Angle-Wood Only</t>
         </is>
       </c>
-      <c r="E153" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F153" s="13" t="n">
+      <c r="E181" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F181" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G153" s="13" t="inlineStr"/>
-      <c r="H153" s="14" t="n">
-        <v>124.32</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="9" t="inlineStr">
+      <c r="G181" s="13" t="inlineStr"/>
+      <c r="H181" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="inlineStr">
         <is>
           <t>Point 34</t>
         </is>
       </c>
-      <c r="B154" s="9" t="inlineStr">
+      <c r="B182" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C182" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D182" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E182" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F182" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" s="10" t="inlineStr"/>
+      <c r="H182" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B183" s="12" t="inlineStr">
+        <is>
+          <t>POL-45-1</t>
+        </is>
+      </c>
+      <c r="C183" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D183" s="12" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E183" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F183" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" s="13" t="inlineStr"/>
+      <c r="H183" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B184" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C154" s="9" t="inlineStr">
+      <c r="C184" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D154" s="9" t="inlineStr">
+      <c r="D184" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E154" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F154" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G154" s="10" t="inlineStr"/>
-      <c r="H154" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="15" t="inlineStr">
+      <c r="E184" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F184" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="10" t="inlineStr"/>
+      <c r="H184" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B185" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C185" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D185" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E185" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F185" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G185" s="13" t="inlineStr"/>
+      <c r="H185" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H155" s="16" t="n">
-        <v>4178.69</v>
+      <c r="H186" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="A124:H124"/>
-    <mergeCell ref="A136:H136"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A147:H147"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A186:G186"/>
+    <mergeCell ref="A160:H160"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A157:G157"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="A155:G155"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89877202_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89877202_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I186"/>
+  <dimension ref="A2:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>30038.7</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P77</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-SA477</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup,Ampact 477</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>CND-SA477</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact 477</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1267,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1301,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1339,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,7 +1373,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="35">
@@ -1388,17 +1384,17 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>GND-LG-SL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>GND,Lug,St Lt</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1403,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1418,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1428,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1445,7 +1441,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1452,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1462,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,11 +1471,11 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="38">
@@ -1490,7 +1486,7 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1500,7 +1496,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1509,11 +1505,11 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="39">
@@ -1524,7 +1520,7 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1534,7 +1530,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1547,7 +1543,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="40">
@@ -1558,7 +1554,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,7 +1564,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1577,11 +1573,11 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="41">
@@ -1592,7 +1588,7 @@
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1602,7 +1598,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1615,7 +1611,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="42">
@@ -1626,17 +1622,17 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SLB-W-8-S-1-S</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SLB,Wood,8ft,Steel,1Pos,Street</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1649,7 +1645,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="43">
@@ -1660,17 +1656,17 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>SLT-250-SRM</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>250W Multi-Volt Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1683,7 +1679,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1690,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>SLB-W-8-S-1-S</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1700,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>SLB,Wood,8ft,Steel,1Pos,Street</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,28 +1713,28 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>SLT-250-SRM</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>250W Multi-Volt Sodium Roadway Refractor</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1751,28 +1747,28 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CND-S556</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CND,Stirrup 556MCM</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1781,32 +1777,32 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,11 +1811,11 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="48">
@@ -1830,7 +1826,7 @@
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1840,7 +1836,7 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1849,11 +1845,11 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1864,7 +1860,7 @@
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>CND-S556</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1874,7 +1870,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup 556MCM</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1887,7 +1883,7 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="50">
@@ -1898,7 +1894,7 @@
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1908,7 +1904,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1921,7 +1917,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="51">
@@ -1932,7 +1928,7 @@
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1942,7 +1938,7 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1955,28 +1951,28 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1989,28 +1985,28 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,32 +2015,32 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2057,28 +2053,28 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2087,11 +2083,11 @@
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="56">
@@ -2102,7 +2098,7 @@
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2112,7 +2108,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2125,7 +2121,7 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="57">
@@ -2136,7 +2132,7 @@
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2146,7 +2142,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,7 +2155,7 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="58">
@@ -2170,7 +2166,7 @@
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -2180,7 +2176,7 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2189,22 +2185,22 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -2214,7 +2210,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2223,22 +2219,22 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2248,7 +2244,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2261,18 +2257,18 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2282,7 +2278,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2291,22 +2287,22 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>565.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2316,7 +2312,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,22 +2321,22 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>TIE-40-SP3-N</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2350,7 +2346,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>TIE,4/0 AWG,Spool 3in,Neutral/Sec</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2363,18 +2359,18 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
@@ -2384,7 +2380,7 @@
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2393,11 +2389,11 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="65">
@@ -2408,7 +2404,7 @@
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
@@ -2418,7 +2414,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2431,28 +2427,28 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2465,13 +2461,13 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
@@ -2481,7 +2477,7 @@
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
@@ -2495,17 +2491,17 @@
         </is>
       </c>
       <c r="F67" s="13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
@@ -2515,7 +2511,7 @@
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
@@ -2533,28 +2529,28 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>POL-45-3</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>Pole,45ft,Class 3</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,28 +2563,28 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2597,22 +2593,22 @@
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
@@ -2622,7 +2618,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2635,18 +2631,18 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2656,7 +2652,7 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2665,32 +2661,32 @@
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2703,13 +2699,13 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
@@ -2719,7 +2715,7 @@
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
@@ -2737,28 +2733,28 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2767,32 +2763,32 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>POL-45-3</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 3</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2801,32 +2797,32 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2835,32 +2831,32 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2869,11 +2865,11 @@
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="79">
@@ -2884,7 +2880,7 @@
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2894,7 +2890,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2907,28 +2903,28 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2941,28 +2937,28 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2975,13 +2971,13 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
@@ -2991,7 +2987,7 @@
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
@@ -3009,13 +3005,13 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
@@ -3025,7 +3021,7 @@
       </c>
       <c r="C83" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D83" s="12" t="inlineStr">
@@ -3043,28 +3039,28 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -3077,28 +3073,28 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -3107,22 +3103,22 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -3132,7 +3128,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3141,22 +3137,22 @@
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -3166,7 +3162,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3179,18 +3175,18 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -3200,7 +3196,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3209,32 +3205,32 @@
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>565.02</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3243,32 +3239,32 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3277,32 +3273,32 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-50-1</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,50ft,Class 1</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3311,32 +3307,32 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>0</v>
+        <v>631.14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3345,32 +3341,32 @@
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3379,22 +3375,22 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>POL-45-4</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3404,7 +3400,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 4</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3413,22 +3409,22 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>0</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -3438,7 +3434,7 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3447,22 +3443,22 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>0</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
@@ -3472,7 +3468,7 @@
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3481,32 +3477,32 @@
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>PIN-35-ANGW</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pin,35kV,Angle-Wood Only</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3515,32 +3511,32 @@
         </is>
       </c>
       <c r="F97" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>0</v>
+        <v>124.32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3553,18 +3549,18 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
@@ -3574,7 +3570,7 @@
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3583,22 +3579,22 @@
         </is>
       </c>
       <c r="F99" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3608,7 +3604,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3617,22 +3613,22 @@
         </is>
       </c>
       <c r="F100" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
@@ -3642,7 +3638,7 @@
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3651,22 +3647,22 @@
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>POL-50-1</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -3676,7 +3672,7 @@
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>Pole,50ft,Class 1</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3689,18 +3685,18 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3710,7 +3706,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3723,18 +3719,18 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3744,7 +3740,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3757,18 +3753,18 @@
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
@@ -3778,7 +3774,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3787,32 +3783,32 @@
         </is>
       </c>
       <c r="F105" s="13" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3825,28 +3821,28 @@
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>ARM-BR-60S</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3855,32 +3851,32 @@
         </is>
       </c>
       <c r="F107" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>0</v>
+        <v>701.0599999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3889,32 +3885,32 @@
         </is>
       </c>
       <c r="F108" s="10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3923,32 +3919,32 @@
         </is>
       </c>
       <c r="F109" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>0</v>
+        <v>565.02</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>PIN-35-ANGW</t>
+          <t>PAA-40AL</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>Pin,35kV,Angle-Wood Only</t>
+          <t>PAA,#1/0 - #4/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3957,32 +3953,32 @@
         </is>
       </c>
       <c r="F110" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>PIN-15-ANG</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>Pin,15kV,Angle</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3991,32 +3987,32 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>0</v>
+        <v>565.02</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>POL-45-3</t>
+          <t>POL-50-1</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D112" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 3</t>
+          <t>Pole,50ft,Class 1</t>
         </is>
       </c>
       <c r="E112" s="9" t="inlineStr">
@@ -4025,32 +4021,32 @@
         </is>
       </c>
       <c r="F112" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>0</v>
+        <v>631.14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -4059,32 +4055,32 @@
         </is>
       </c>
       <c r="F113" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SLB-W-8-S-1-S</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SLB,Wood,8ft,Steel,1Pos,Street</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -4093,32 +4089,32 @@
         </is>
       </c>
       <c r="F114" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>SLT-250-SRM</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>250W Multi-Volt Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E115" s="12" t="inlineStr">
@@ -4131,28 +4127,28 @@
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D116" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E116" s="9" t="inlineStr">
@@ -4161,32 +4157,32 @@
         </is>
       </c>
       <c r="F116" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>0</v>
+        <v>186.48</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-35-ANGW</t>
         </is>
       </c>
       <c r="C117" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D117" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,35kV,Angle-Wood Only</t>
         </is>
       </c>
       <c r="E117" s="12" t="inlineStr">
@@ -4195,32 +4191,32 @@
         </is>
       </c>
       <c r="F117" s="13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>0</v>
+        <v>186.48</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -4233,18 +4229,18 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
@@ -4254,7 +4250,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -4263,17 +4259,17 @@
         </is>
       </c>
       <c r="F119" s="13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>0</v>
+        <v>565.02</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
@@ -4301,198 +4297,87 @@
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B121" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C121" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D121" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E121" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F121" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G121" s="13" t="inlineStr"/>
-      <c r="H121" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="9" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B122" s="9" t="inlineStr">
-        <is>
-          <t>SAA-CL-336</t>
-        </is>
-      </c>
-      <c r="C122" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D122" s="9" t="inlineStr">
-        <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
-        </is>
-      </c>
-      <c r="E122" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F122" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" s="10" t="inlineStr"/>
-      <c r="H122" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B123" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C123" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D123" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E123" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F123" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="G123" s="13" t="inlineStr"/>
-      <c r="H123" s="14" t="n">
-        <v>0</v>
+      <c r="A121" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H121" s="16" t="n">
+        <v>24384.69000000001</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B124" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C124" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D124" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E124" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F124" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G124" s="10" t="inlineStr"/>
-      <c r="H124" s="11" t="n">
-        <v>0</v>
+      <c r="A124" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (08/14/2025)</t>
+        </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B125" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C125" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D125" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E125" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F125" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" s="13" t="inlineStr"/>
-      <c r="H125" s="14" t="n">
-        <v>0</v>
+      <c r="A125" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B125" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C125" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D125" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E125" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G125" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H125" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B126" s="9" t="inlineStr">
         <is>
-          <t>GND-LG-SL</t>
+          <t>CNA-SWITCH</t>
         </is>
       </c>
       <c r="C126" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D126" s="9" t="inlineStr">
         <is>
-          <t>GND,Lug,St Lt</t>
+          <t>CNA,Overhead Switching</t>
         </is>
       </c>
       <c r="E126" s="9" t="inlineStr">
@@ -4501,11 +4386,11 @@
         </is>
       </c>
       <c r="F126" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" s="10" t="inlineStr"/>
       <c r="H126" s="11" t="n">
-        <v>0</v>
+        <v>210.76</v>
       </c>
     </row>
     <row r="127">
@@ -4516,7 +4401,7 @@
       </c>
       <c r="B127" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CNA-SWITCH</t>
         </is>
       </c>
       <c r="C127" s="12" t="inlineStr">
@@ -4526,7 +4411,7 @@
       </c>
       <c r="D127" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CNA,Overhead Switching</t>
         </is>
       </c>
       <c r="E127" s="12" t="inlineStr">
@@ -4535,22 +4420,22 @@
         </is>
       </c>
       <c r="F127" s="13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G127" s="13" t="inlineStr"/>
       <c r="H127" s="14" t="n">
-        <v>0</v>
+        <v>210.76</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B128" s="9" t="inlineStr">
         <is>
-          <t>PAA-40AL</t>
+          <t>CNA-SWITCH</t>
         </is>
       </c>
       <c r="C128" s="9" t="inlineStr">
@@ -4560,7 +4445,7 @@
       </c>
       <c r="D128" s="9" t="inlineStr">
         <is>
-          <t>PAA,#1/0 - #4/0 AA,AL,AS</t>
+          <t>CNA,Overhead Switching</t>
         </is>
       </c>
       <c r="E128" s="9" t="inlineStr">
@@ -4569,22 +4454,22 @@
         </is>
       </c>
       <c r="F128" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="10" t="inlineStr"/>
       <c r="H128" s="11" t="n">
-        <v>0</v>
+        <v>210.76</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B129" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-ANG</t>
+          <t>CNA-SWITCH</t>
         </is>
       </c>
       <c r="C129" s="12" t="inlineStr">
@@ -4594,7 +4479,7 @@
       </c>
       <c r="D129" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Angle</t>
+          <t>CNA,Overhead Switching</t>
         </is>
       </c>
       <c r="E129" s="12" t="inlineStr">
@@ -4603,22 +4488,22 @@
         </is>
       </c>
       <c r="F129" s="13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G129" s="13" t="inlineStr"/>
       <c r="H129" s="14" t="n">
-        <v>0</v>
+        <v>210.76</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B130" s="9" t="inlineStr">
         <is>
-          <t>POL-50-1</t>
+          <t>CNA-SWITCH</t>
         </is>
       </c>
       <c r="C130" s="9" t="inlineStr">
@@ -4628,7 +4513,7 @@
       </c>
       <c r="D130" s="9" t="inlineStr">
         <is>
-          <t>Pole,50ft,Class 1</t>
+          <t>CNA,Overhead Switching</t>
         </is>
       </c>
       <c r="E130" s="9" t="inlineStr">
@@ -4637,22 +4522,22 @@
         </is>
       </c>
       <c r="F130" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130" s="10" t="inlineStr"/>
       <c r="H130" s="11" t="n">
-        <v>0</v>
+        <v>210.76</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B131" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CNA-SWITCH</t>
         </is>
       </c>
       <c r="C131" s="12" t="inlineStr">
@@ -4662,7 +4547,7 @@
       </c>
       <c r="D131" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CNA,Overhead Switching</t>
         </is>
       </c>
       <c r="E131" s="12" t="inlineStr">
@@ -4675,28 +4560,28 @@
       </c>
       <c r="G131" s="13" t="inlineStr"/>
       <c r="H131" s="14" t="n">
-        <v>0</v>
+        <v>210.76</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B132" s="9" t="inlineStr">
         <is>
-          <t>SLB-W-8-S-1-S</t>
+          <t>CNA-SWITCH</t>
         </is>
       </c>
       <c r="C132" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D132" s="9" t="inlineStr">
         <is>
-          <t>SLB,Wood,8ft,Steel,1Pos,Street</t>
+          <t>CNA,Overhead Switching</t>
         </is>
       </c>
       <c r="E132" s="9" t="inlineStr">
@@ -4705,202 +4590,91 @@
         </is>
       </c>
       <c r="F132" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" s="10" t="inlineStr"/>
       <c r="H132" s="11" t="n">
-        <v>0</v>
+        <v>210.76</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B133" s="12" t="inlineStr">
-        <is>
-          <t>SLT-250-SRM</t>
-        </is>
-      </c>
-      <c r="C133" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D133" s="12" t="inlineStr">
-        <is>
-          <t>250W Multi-Volt Sodium Roadway Refractor</t>
-        </is>
-      </c>
-      <c r="E133" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" s="13" t="inlineStr"/>
-      <c r="H133" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B134" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C134" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D134" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E134" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="G134" s="10" t="inlineStr"/>
-      <c r="H134" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B135" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C135" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D135" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E135" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G135" s="13" t="inlineStr"/>
-      <c r="H135" s="14" t="n">
-        <v>0</v>
+      <c r="A133" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H133" s="16" t="n">
+        <v>1475.32</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B136" s="9" t="inlineStr">
-        <is>
-          <t>PIN-35-ANGW</t>
-        </is>
-      </c>
-      <c r="C136" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D136" s="9" t="inlineStr">
-        <is>
-          <t>Pin,35kV,Angle-Wood Only</t>
-        </is>
-      </c>
-      <c r="E136" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G136" s="10" t="inlineStr"/>
-      <c r="H136" s="11" t="n">
-        <v>0</v>
+      <c r="A136" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/15/2025)</t>
+        </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B137" s="12" t="inlineStr">
-        <is>
-          <t>PLD-ASB</t>
-        </is>
-      </c>
-      <c r="C137" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D137" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Anti Split Bolt</t>
-        </is>
-      </c>
-      <c r="E137" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" s="13" t="inlineStr"/>
-      <c r="H137" s="14" t="n">
-        <v>0</v>
+      <c r="A137" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B137" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C137" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D137" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E137" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G137" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H137" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B138" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C138" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D138" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E138" s="9" t="inlineStr">
@@ -4913,28 +4687,28 @@
       </c>
       <c r="G138" s="10" t="inlineStr"/>
       <c r="H138" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B139" s="12" t="inlineStr">
         <is>
-          <t>POL-45-1</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 1</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E139" s="12" t="inlineStr">
@@ -4943,32 +4717,32 @@
         </is>
       </c>
       <c r="F139" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="13" t="inlineStr"/>
       <c r="H139" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B140" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C140" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D140" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E140" s="9" t="inlineStr">
@@ -4981,28 +4755,28 @@
       </c>
       <c r="G140" s="10" t="inlineStr"/>
       <c r="H140" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B141" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C141" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D141" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E141" s="12" t="inlineStr">
@@ -5011,22 +4785,22 @@
         </is>
       </c>
       <c r="F141" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G141" s="13" t="inlineStr"/>
       <c r="H141" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B142" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C142" s="9" t="inlineStr">
@@ -5036,7 +4810,7 @@
       </c>
       <c r="D142" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E142" s="9" t="inlineStr">
@@ -5045,22 +4819,22 @@
         </is>
       </c>
       <c r="F142" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G142" s="10" t="inlineStr"/>
       <c r="H142" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B143" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C143" s="12" t="inlineStr">
@@ -5070,7 +4844,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E143" s="12" t="inlineStr">
@@ -5083,1242 +4857,410 @@
       </c>
       <c r="G143" s="13" t="inlineStr"/>
       <c r="H143" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="15" t="inlineStr">
+      <c r="A144" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B144" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C144" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D144" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E144" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G144" s="10" t="inlineStr"/>
+      <c r="H144" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B145" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C145" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D145" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E145" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F145" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" s="13" t="inlineStr"/>
+      <c r="H145" s="14" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B146" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C146" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D146" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E146" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G146" s="10" t="inlineStr"/>
+      <c r="H146" s="11" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B147" s="12" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C147" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D147" s="12" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E147" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" s="13" t="inlineStr"/>
+      <c r="H147" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B148" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C148" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D148" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E148" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="10" t="inlineStr"/>
+      <c r="H148" s="11" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B149" s="12" t="inlineStr">
+        <is>
+          <t>SAA-CL-336</t>
+        </is>
+      </c>
+      <c r="C149" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D149" s="12" t="inlineStr">
+        <is>
+          <t>SAA,Susp Clamp Light Angle,336</t>
+        </is>
+      </c>
+      <c r="E149" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="13" t="inlineStr"/>
+      <c r="H149" s="14" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8D-60S</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D150" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E150" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="10" t="inlineStr"/>
+      <c r="H150" s="11" t="n">
+        <v>73.73</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B151" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C151" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D151" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E151" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G151" s="13" t="inlineStr"/>
+      <c r="H151" s="14" t="n">
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B152" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C152" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D152" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E152" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="10" t="inlineStr"/>
+      <c r="H152" s="11" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B153" s="12" t="inlineStr">
+        <is>
+          <t>PIN-35-ANGW</t>
+        </is>
+      </c>
+      <c r="C153" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D153" s="12" t="inlineStr">
+        <is>
+          <t>Pin,35kV,Angle-Wood Only</t>
+        </is>
+      </c>
+      <c r="E153" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" s="13" t="inlineStr"/>
+      <c r="H153" s="14" t="n">
+        <v>124.32</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B154" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C154" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D154" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E154" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F154" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" s="10" t="inlineStr"/>
+      <c r="H154" s="11" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H144" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (08/14/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B148" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C148" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D148" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E148" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F148" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G148" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H148" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B149" s="9" t="inlineStr">
-        <is>
-          <t>CNA-SWITCH</t>
-        </is>
-      </c>
-      <c r="C149" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D149" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Overhead Switching</t>
-        </is>
-      </c>
-      <c r="E149" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G149" s="10" t="inlineStr"/>
-      <c r="H149" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B150" s="12" t="inlineStr">
-        <is>
-          <t>CNA-SWITCH</t>
-        </is>
-      </c>
-      <c r="C150" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D150" s="12" t="inlineStr">
-        <is>
-          <t>CNA,Overhead Switching</t>
-        </is>
-      </c>
-      <c r="E150" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G150" s="13" t="inlineStr"/>
-      <c r="H150" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B151" s="9" t="inlineStr">
-        <is>
-          <t>CNA-SWITCH</t>
-        </is>
-      </c>
-      <c r="C151" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D151" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Overhead Switching</t>
-        </is>
-      </c>
-      <c r="E151" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G151" s="10" t="inlineStr"/>
-      <c r="H151" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B152" s="12" t="inlineStr">
-        <is>
-          <t>CNA-SWITCH</t>
-        </is>
-      </c>
-      <c r="C152" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D152" s="12" t="inlineStr">
-        <is>
-          <t>CNA,Overhead Switching</t>
-        </is>
-      </c>
-      <c r="E152" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G152" s="13" t="inlineStr"/>
-      <c r="H152" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B153" s="9" t="inlineStr">
-        <is>
-          <t>CNA-SWITCH</t>
-        </is>
-      </c>
-      <c r="C153" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D153" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Overhead Switching</t>
-        </is>
-      </c>
-      <c r="E153" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F153" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G153" s="10" t="inlineStr"/>
-      <c r="H153" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B154" s="12" t="inlineStr">
-        <is>
-          <t>CNA-SWITCH</t>
-        </is>
-      </c>
-      <c r="C154" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D154" s="12" t="inlineStr">
-        <is>
-          <t>CNA,Overhead Switching</t>
-        </is>
-      </c>
-      <c r="E154" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F154" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G154" s="13" t="inlineStr"/>
-      <c r="H154" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="9" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B155" s="9" t="inlineStr">
-        <is>
-          <t>CNA-SWITCH</t>
-        </is>
-      </c>
-      <c r="C155" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D155" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Overhead Switching</t>
-        </is>
-      </c>
-      <c r="E155" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F155" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G155" s="10" t="inlineStr"/>
-      <c r="H155" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="12" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B156" s="12" t="inlineStr">
-        <is>
-          <t>ARD-477</t>
-        </is>
-      </c>
-      <c r="C156" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D156" s="12" t="inlineStr">
-        <is>
-          <t>ARD,477 ACSR (Armor Rod)</t>
-        </is>
-      </c>
-      <c r="E156" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F156" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" s="13" t="inlineStr"/>
-      <c r="H156" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H157" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="7" t="inlineStr">
-        <is>
-          <t>Friday (08/15/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B161" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C161" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D161" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E161" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F161" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G161" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H161" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B162" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C162" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D162" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E162" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F162" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G162" s="10" t="inlineStr"/>
-      <c r="H162" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B163" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C163" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D163" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E163" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F163" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" s="13" t="inlineStr"/>
-      <c r="H163" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B164" s="9" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C164" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D164" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E164" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F164" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" s="10" t="inlineStr"/>
-      <c r="H164" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B165" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C165" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D165" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E165" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F165" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" s="13" t="inlineStr"/>
-      <c r="H165" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B166" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C166" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D166" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E166" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F166" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G166" s="10" t="inlineStr"/>
-      <c r="H166" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B167" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C167" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D167" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E167" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F167" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G167" s="13" t="inlineStr"/>
-      <c r="H167" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B168" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C168" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D168" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E168" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F168" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G168" s="10" t="inlineStr"/>
-      <c r="H168" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B169" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C169" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D169" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E169" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F169" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" s="13" t="inlineStr"/>
-      <c r="H169" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B170" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C170" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D170" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E170" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F170" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G170" s="10" t="inlineStr"/>
-      <c r="H170" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B171" s="12" t="inlineStr">
-        <is>
-          <t>POL-45-2</t>
-        </is>
-      </c>
-      <c r="C171" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D171" s="12" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E171" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F171" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G171" s="13" t="inlineStr"/>
-      <c r="H171" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B172" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C172" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D172" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E172" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F172" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" s="10" t="inlineStr"/>
-      <c r="H172" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B173" s="12" t="inlineStr">
-        <is>
-          <t>SAA-CL-336</t>
-        </is>
-      </c>
-      <c r="C173" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D173" s="12" t="inlineStr">
-        <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
-        </is>
-      </c>
-      <c r="E173" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F173" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G173" s="13" t="inlineStr"/>
-      <c r="H173" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B174" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C174" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D174" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E174" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F174" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G174" s="10" t="inlineStr"/>
-      <c r="H174" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B175" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C175" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D175" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E175" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F175" s="13" t="n">
-        <v>48</v>
-      </c>
-      <c r="G175" s="13" t="inlineStr"/>
-      <c r="H175" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B176" s="9" t="inlineStr">
-        <is>
-          <t>ARD-477</t>
-        </is>
-      </c>
-      <c r="C176" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D176" s="9" t="inlineStr">
-        <is>
-          <t>ARD,477 ACSR (Armor Rod)</t>
-        </is>
-      </c>
-      <c r="E176" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F176" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G176" s="10" t="inlineStr"/>
-      <c r="H176" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B177" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8D-60S</t>
-        </is>
-      </c>
-      <c r="C177" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D177" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E177" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F177" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" s="13" t="inlineStr"/>
-      <c r="H177" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B178" s="9" t="inlineStr">
-        <is>
-          <t>ARM-BR-60S</t>
-        </is>
-      </c>
-      <c r="C178" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D178" s="9" t="inlineStr">
-        <is>
-          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E178" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F178" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" s="10" t="inlineStr"/>
-      <c r="H178" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B179" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C179" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D179" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E179" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F179" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G179" s="13" t="inlineStr"/>
-      <c r="H179" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B180" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C180" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D180" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E180" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F180" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" s="10" t="inlineStr"/>
-      <c r="H180" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B181" s="12" t="inlineStr">
-        <is>
-          <t>PIN-35-ANGW</t>
-        </is>
-      </c>
-      <c r="C181" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D181" s="12" t="inlineStr">
-        <is>
-          <t>Pin,35kV,Angle-Wood Only</t>
-        </is>
-      </c>
-      <c r="E181" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F181" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G181" s="13" t="inlineStr"/>
-      <c r="H181" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B182" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C182" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D182" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E182" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F182" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" s="10" t="inlineStr"/>
-      <c r="H182" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B183" s="12" t="inlineStr">
-        <is>
-          <t>POL-45-1</t>
-        </is>
-      </c>
-      <c r="C183" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D183" s="12" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E183" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F183" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" s="13" t="inlineStr"/>
-      <c r="H183" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B184" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C184" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D184" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E184" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F184" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G184" s="10" t="inlineStr"/>
-      <c r="H184" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B185" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C185" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D185" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E185" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F185" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G185" s="13" t="inlineStr"/>
-      <c r="H185" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H186" s="16" t="n">
-        <v>0</v>
+      <c r="H155" s="16" t="n">
+        <v>4178.69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A124:H124"/>
+    <mergeCell ref="A136:H136"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A147:H147"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="A186:G186"/>
-    <mergeCell ref="A160:H160"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A157:G157"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="A155:G155"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
